--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBC\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBC\home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="977">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3578,6 +3578,48 @@
   <si>
     <t>LcButton</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
   </si>
 </sst>
 </file>
@@ -4462,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -6549,9 +6591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9836,10 +9878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218:G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12135,7 +12177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>841</v>
       </c>
@@ -12146,7 +12188,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>842</v>
       </c>
@@ -12157,7 +12199,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>843</v>
       </c>
@@ -12168,7 +12210,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>844</v>
       </c>
@@ -12179,7 +12221,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>845</v>
       </c>
@@ -12190,7 +12232,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>887</v>
       </c>
@@ -12201,7 +12243,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>888</v>
       </c>
@@ -12212,7 +12254,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>889</v>
       </c>
@@ -12223,7 +12265,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>898</v>
       </c>
@@ -12234,7 +12276,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>899</v>
       </c>
@@ -12244,8 +12286,17 @@
       <c r="C218" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E218" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>900</v>
       </c>
@@ -12255,8 +12306,17 @@
       <c r="C219" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E219" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>901</v>
       </c>
@@ -12266,8 +12326,17 @@
       <c r="C220" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E220" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>902</v>
       </c>
@@ -12277,8 +12346,17 @@
       <c r="C221" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E221" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>903</v>
       </c>
@@ -12288,8 +12366,17 @@
       <c r="C222" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E222" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>904</v>
       </c>
@@ -12299,8 +12386,17 @@
       <c r="C223" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E223" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>905</v>
       </c>
@@ -12310,8 +12406,17 @@
       <c r="C224" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E224" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>906</v>
       </c>
@@ -12321,8 +12426,17 @@
       <c r="C225" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E225" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>907</v>
       </c>
@@ -12332,8 +12446,17 @@
       <c r="C226" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E226" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>908</v>
       </c>
@@ -12343,8 +12466,17 @@
       <c r="C227" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E227" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>909</v>
       </c>
@@ -12354,8 +12486,17 @@
       <c r="C228" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E228" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>910</v>
       </c>
@@ -12365,8 +12506,17 @@
       <c r="C229" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E229" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>911</v>
       </c>
@@ -12376,8 +12526,17 @@
       <c r="C230" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E230" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>943</v>
       </c>
@@ -12387,10 +12546,19 @@
       <c r="C231" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E231" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>899</v>
+        <v>956</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>756</v>
@@ -12398,10 +12566,19 @@
       <c r="C232" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E232" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>900</v>
+        <v>957</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>756</v>
@@ -12409,10 +12586,19 @@
       <c r="C233" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E233" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>901</v>
+        <v>958</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>756</v>
@@ -12420,10 +12606,19 @@
       <c r="C234" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E234" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>902</v>
+        <v>963</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>756</v>
@@ -12431,10 +12626,19 @@
       <c r="C235" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E235" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>903</v>
+        <v>964</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>756</v>
@@ -12442,10 +12646,19 @@
       <c r="C236" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E236" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>904</v>
+        <v>965</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>756</v>
@@ -12453,10 +12666,19 @@
       <c r="C237" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E237" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>905</v>
+        <v>966</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>756</v>
@@ -12464,10 +12686,19 @@
       <c r="C238" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E238" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>906</v>
+        <v>967</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>756</v>
@@ -12475,10 +12706,19 @@
       <c r="C239" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E239" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>907</v>
+        <v>968</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>756</v>
@@ -12486,10 +12726,19 @@
       <c r="C240" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E240" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>908</v>
+        <v>969</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>756</v>
@@ -12497,10 +12746,19 @@
       <c r="C241" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E241" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>909</v>
+        <v>970</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>756</v>
@@ -12508,10 +12766,19 @@
       <c r="C242" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E242" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>910</v>
+        <v>971</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>756</v>
@@ -12519,10 +12786,19 @@
       <c r="C243" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E243" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>911</v>
+        <v>972</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>756</v>
@@ -12530,10 +12806,19 @@
       <c r="C244" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E244" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>943</v>
+        <v>973</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>756</v>
@@ -12541,10 +12826,19 @@
       <c r="C245" s="1" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E245" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>756</v>
@@ -12552,10 +12846,19 @@
       <c r="C246" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E246" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>756</v>
@@ -12563,15 +12866,33 @@
       <c r="C247" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E247" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>954</v>
       </c>
     </row>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="985">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3620,6 +3620,38 @@
   </si>
   <si>
     <t>256</t>
+  </si>
+  <si>
+    <t>LcComponentTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件模板值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcComponentTemplateValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4502,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="T39" sqref="A39:T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6376,7 +6408,7 @@
         <v>498</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>132</v>
+        <v>916</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>517</v>
@@ -6488,7 +6520,7 @@
         <v>921</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>923</v>
@@ -6544,7 +6576,7 @@
         <v>922</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>917</v>
+        <v>983</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>924</v>
@@ -6577,6 +6609,138 @@
         <v>13</v>
       </c>
       <c r="T36" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -6591,9 +6755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M82" sqref="M82"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9782,94 +9946,94 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P2:P46">
-    <cfRule type="duplicateValues" dxfId="29" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P70">
-    <cfRule type="duplicateValues" dxfId="27" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P71">
-    <cfRule type="duplicateValues" dxfId="26" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P68">
-    <cfRule type="duplicateValues" dxfId="25" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P69">
-    <cfRule type="duplicateValues" dxfId="24" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="duplicateValues" dxfId="23" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="duplicateValues" dxfId="22" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="duplicateValues" dxfId="21" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="duplicateValues" dxfId="20" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="duplicateValues" dxfId="19" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="duplicateValues" dxfId="18" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="duplicateValues" dxfId="17" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56">
-    <cfRule type="duplicateValues" dxfId="16" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57">
-    <cfRule type="duplicateValues" dxfId="15" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P58">
-    <cfRule type="duplicateValues" dxfId="14" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59">
-    <cfRule type="duplicateValues" dxfId="13" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60">
-    <cfRule type="duplicateValues" dxfId="12" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P61">
-    <cfRule type="duplicateValues" dxfId="11" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P62">
-    <cfRule type="duplicateValues" dxfId="10" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="duplicateValues" dxfId="9" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:P67">
-    <cfRule type="duplicateValues" dxfId="8" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P72">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P73">
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P77">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P78">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P79">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9881,7 +10045,7 @@
   <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218:G248"/>
+      <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14301,7 +14465,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="K11" sqref="A11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14583,11 +14747,11 @@
       <c r="A9" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B9" s="1">
-        <v>6</v>
+      <c r="B9" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>496</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -14611,8 +14775,66 @@
         <v>404</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F11"/>
+      <c r="B11" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F12"/>
@@ -14675,8 +14897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="994">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3651,6 +3651,42 @@
   </si>
   <si>
     <t>0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板起始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3776,7 +3812,97 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4534,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="T39" sqref="A39:T42"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6724,26 +6850,6 @@
         <v>405</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6753,11 +6859,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9943,96 +10049,228 @@
         <v>405</v>
       </c>
     </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P2:P46">
-    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="duplicateValues" dxfId="28" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P70">
-    <cfRule type="duplicateValues" dxfId="27" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P71">
-    <cfRule type="duplicateValues" dxfId="26" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P68">
-    <cfRule type="duplicateValues" dxfId="25" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P69">
-    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49">
-    <cfRule type="duplicateValues" dxfId="23" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="duplicateValues" dxfId="22" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="duplicateValues" dxfId="21" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="duplicateValues" dxfId="20" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="duplicateValues" dxfId="19" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="duplicateValues" dxfId="18" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="duplicateValues" dxfId="17" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56">
-    <cfRule type="duplicateValues" dxfId="16" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57">
-    <cfRule type="duplicateValues" dxfId="15" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P58">
-    <cfRule type="duplicateValues" dxfId="14" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59">
-    <cfRule type="duplicateValues" dxfId="13" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60">
-    <cfRule type="duplicateValues" dxfId="12" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P61">
-    <cfRule type="duplicateValues" dxfId="11" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P62">
-    <cfRule type="duplicateValues" dxfId="10" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="duplicateValues" dxfId="9" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:P67">
-    <cfRule type="duplicateValues" dxfId="8" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P72">
-    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P73">
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P77">
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P78">
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P79">
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P80">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P78">
+  <conditionalFormatting sqref="P81">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P79">
+  <conditionalFormatting sqref="P82">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10042,10 +10280,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12341,7 +12579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>841</v>
       </c>
@@ -12352,7 +12590,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>842</v>
       </c>
@@ -12363,7 +12601,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>843</v>
       </c>
@@ -12374,7 +12612,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>844</v>
       </c>
@@ -12385,7 +12623,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>845</v>
       </c>
@@ -12396,7 +12634,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>887</v>
       </c>
@@ -12407,7 +12645,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>888</v>
       </c>
@@ -12418,7 +12656,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>889</v>
       </c>
@@ -12429,7 +12667,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>898</v>
       </c>
@@ -12440,7 +12678,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>899</v>
       </c>
@@ -12450,17 +12688,8 @@
       <c r="C218" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>900</v>
       </c>
@@ -12470,17 +12699,8 @@
       <c r="C219" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>901</v>
       </c>
@@ -12490,17 +12710,8 @@
       <c r="C220" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>902</v>
       </c>
@@ -12510,17 +12721,8 @@
       <c r="C221" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>903</v>
       </c>
@@ -12530,17 +12732,8 @@
       <c r="C222" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>904</v>
       </c>
@@ -12550,17 +12743,8 @@
       <c r="C223" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>905</v>
       </c>
@@ -12570,17 +12754,8 @@
       <c r="C224" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>906</v>
       </c>
@@ -12590,17 +12765,8 @@
       <c r="C225" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>907</v>
       </c>
@@ -12610,17 +12776,8 @@
       <c r="C226" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>908</v>
       </c>
@@ -12630,17 +12787,8 @@
       <c r="C227" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>909</v>
       </c>
@@ -12650,17 +12798,8 @@
       <c r="C228" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>910</v>
       </c>
@@ -12670,17 +12809,8 @@
       <c r="C229" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>911</v>
       </c>
@@ -12690,17 +12820,8 @@
       <c r="C230" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>943</v>
       </c>
@@ -12710,17 +12831,8 @@
       <c r="C231" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>956</v>
       </c>
@@ -12730,17 +12842,8 @@
       <c r="C232" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>957</v>
       </c>
@@ -12750,17 +12853,8 @@
       <c r="C233" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>958</v>
       </c>
@@ -12770,17 +12864,8 @@
       <c r="C234" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>963</v>
       </c>
@@ -12790,17 +12875,8 @@
       <c r="C235" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>964</v>
       </c>
@@ -12810,17 +12886,8 @@
       <c r="C236" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>965</v>
       </c>
@@ -12830,17 +12897,8 @@
       <c r="C237" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>966</v>
       </c>
@@ -12850,17 +12908,8 @@
       <c r="C238" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>967</v>
       </c>
@@ -12870,17 +12919,8 @@
       <c r="C239" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>968</v>
       </c>
@@ -12890,17 +12930,8 @@
       <c r="C240" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>969</v>
       </c>
@@ -12910,17 +12941,8 @@
       <c r="C241" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>970</v>
       </c>
@@ -12930,17 +12952,8 @@
       <c r="C242" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>971</v>
       </c>
@@ -12950,17 +12963,8 @@
       <c r="C243" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>972</v>
       </c>
@@ -12970,17 +12974,8 @@
       <c r="C244" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>973</v>
       </c>
@@ -12990,17 +12985,8 @@
       <c r="C245" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>974</v>
       </c>
@@ -13010,17 +12996,8 @@
       <c r="C246" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>975</v>
       </c>
@@ -13030,17 +13007,8 @@
       <c r="C247" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>976</v>
       </c>
@@ -13048,15 +13016,6 @@
         <v>756</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G248" s="1" t="s">
         <v>954</v>
       </c>
     </row>
@@ -13072,7 +13031,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1000">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2899,23 +2899,12 @@
     <t>174</t>
   </si>
   <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>188</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>190</t>
-  </si>
-  <si>
     <t>191</t>
   </si>
   <si>
@@ -2928,12 +2917,6 @@
     <t>194</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
     <t>197</t>
   </si>
   <si>
@@ -3058,12 +3041,6 @@
     <t>182</t>
   </si>
   <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
     <t>185</t>
   </si>
   <si>
@@ -3498,14 +3475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3687,6 +3656,53 @@
   </si>
   <si>
     <t>模板结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4492,107 +4508,107 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="I13" s="5" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -4600,7 +4616,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="I14" s="5" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
@@ -4608,47 +4624,47 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="I15" s="9"/>
       <c r="K15" s="5" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L18" s="5" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -4662,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5187,7 +5203,7 @@
         <v>560</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>561</v>
@@ -5243,7 +5259,7 @@
         <v>523</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>562</v>
@@ -5299,7 +5315,7 @@
         <v>524</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>563</v>
@@ -5355,7 +5371,7 @@
         <v>525</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>564</v>
@@ -5579,7 +5595,7 @@
         <v>529</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>566</v>
@@ -5635,7 +5651,7 @@
         <v>530</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>566</v>
@@ -6363,7 +6379,7 @@
         <v>543</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>566</v>
@@ -6534,7 +6550,7 @@
         <v>498</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>517</v>
@@ -6572,7 +6588,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -6584,16 +6600,16 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>565</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>12</v>
@@ -6643,13 +6659,13 @@
         <v>548</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>12</v>
@@ -6658,7 +6674,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>403</v>
@@ -6699,13 +6715,13 @@
         <v>549</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>12</v>
@@ -6755,13 +6771,13 @@
         <v>550</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>12</v>
@@ -6811,13 +6827,13 @@
         <v>551</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>12</v>
@@ -6861,9 +6877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8777,7 +8793,7 @@
         <v>568</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>569</v>
@@ -8818,7 +8834,7 @@
         <v>572</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>570</v>
@@ -8897,10 +8913,10 @@
         <v>525</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>577</v>
@@ -8941,7 +8957,7 @@
         <v>581</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>578</v>
@@ -9023,7 +9039,7 @@
         <v>591</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>585</v>
@@ -9064,7 +9080,7 @@
         <v>592</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>586</v>
@@ -9565,7 +9581,7 @@
         <v>541</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>703</v>
@@ -9606,7 +9622,7 @@
         <v>542</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>704</v>
@@ -9650,7 +9666,7 @@
         <v>543</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>705</v>
@@ -9691,7 +9707,7 @@
         <v>544</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>706</v>
@@ -9714,7 +9730,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>14</v>
@@ -9729,22 +9745,22 @@
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>7</v>
@@ -9776,13 +9792,13 @@
         <v>546</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>134</v>
@@ -9817,13 +9833,13 @@
         <v>547</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>134</v>
@@ -9858,13 +9874,13 @@
         <v>548</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>134</v>
@@ -9881,7 +9897,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>14</v>
@@ -9896,16 +9912,16 @@
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>137</v>
@@ -9922,7 +9938,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>14</v>
@@ -9937,16 +9953,16 @@
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>134</v>
@@ -9981,22 +9997,22 @@
         <v>551</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>187</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>7</v>
@@ -10010,7 +10026,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
@@ -10025,16 +10041,16 @@
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>134</v>
@@ -10069,13 +10085,13 @@
         <v>553</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>134</v>
@@ -10110,13 +10126,13 @@
         <v>554</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>134</v>
@@ -10151,13 +10167,13 @@
         <v>555</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>134</v>
@@ -10280,10 +10296,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179:E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11377,7 +11393,7 @@
         <v>747</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -11531,7 +11547,7 @@
         <v>748</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -11542,7 +11558,7 @@
         <v>748</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -11663,7 +11679,7 @@
         <v>576</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -12070,7 +12086,7 @@
         <v>763</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -12081,7 +12097,7 @@
         <v>763</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -12119,7 +12135,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>763</v>
@@ -12130,7 +12146,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>763</v>
@@ -12141,7 +12157,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>763</v>
@@ -12152,7 +12168,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>764</v>
@@ -12163,7 +12179,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>764</v>
@@ -12174,7 +12190,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>764</v>
@@ -12185,7 +12201,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>764</v>
@@ -12196,7 +12212,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>764</v>
@@ -12207,57 +12223,57 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>764</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>940</v>
+        <v>999</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>764</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>941</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>764</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>823</v>
+        <v>772</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>764</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>824</v>
+        <v>773</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>764</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -12268,7 +12284,7 @@
         <v>764</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>75</v>
+        <v>789</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -12279,7 +12295,7 @@
         <v>764</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>196</v>
+        <v>790</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -12290,7 +12306,7 @@
         <v>764</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>243</v>
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -12301,7 +12317,7 @@
         <v>764</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -12309,10 +12325,10 @@
         <v>778</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>795</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -12320,10 +12336,10 @@
         <v>779</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>791</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -12331,10 +12347,10 @@
         <v>780</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>792</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -12342,10 +12358,10 @@
         <v>781</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>772</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -12353,10 +12369,10 @@
         <v>782</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>773</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -12367,7 +12383,7 @@
         <v>767</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -12378,7 +12394,7 @@
         <v>767</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -12389,447 +12405,447 @@
         <v>767</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>63</v>
+        <v>760</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>73</v>
+        <v>754</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>74</v>
+        <v>756</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>767</v>
+        <v>583</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>767</v>
+        <v>583</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>767</v>
+        <v>583</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>760</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>767</v>
+        <v>583</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>754</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>767</v>
+        <v>583</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>756</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>63</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>73</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>74</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>75</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>841</v>
+        <v>880</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>196</v>
+        <v>538</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>842</v>
+        <v>881</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>843</v>
+        <v>882</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>844</v>
+        <v>891</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>534</v>
+        <v>933</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>845</v>
+        <v>892</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>583</v>
+        <v>755</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>583</v>
+        <v>755</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>538</v>
+        <v>61</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>583</v>
+        <v>755</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>539</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>583</v>
+        <v>755</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>540</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>583</v>
+        <v>755</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>942</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>63</v>
+        <v>532</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>73</v>
+        <v>533</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>74</v>
+        <v>534</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>75</v>
+        <v>535</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>196</v>
+        <v>886</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>908</v>
+        <v>947</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>532</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>909</v>
+        <v>948</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>533</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>910</v>
+        <v>949</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>534</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>535</v>
+        <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>893</v>
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
@@ -12840,7 +12856,7 @@
         <v>756</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
@@ -12851,7 +12867,7 @@
         <v>756</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -12862,161 +12878,249 @@
         <v>756</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>63</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>73</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>74</v>
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>75</v>
+        <v>535</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>196</v>
+        <v>941</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>532</v>
+        <v>886</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>533</v>
+        <v>940</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>756</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>534</v>
+        <v>945</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>756</v>
+        <v>998</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>756</v>
+        <v>998</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>950</v>
+        <v>61</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>756</v>
+        <v>998</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>893</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>756</v>
+        <v>998</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>949</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>756</v>
+        <v>998</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>954</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -13030,7 +13134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
@@ -14242,7 +14346,7 @@
         <v>726</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>20</v>
@@ -14280,7 +14384,7 @@
         <v>727</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>20</v>
@@ -14318,7 +14422,7 @@
         <v>728</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -14356,7 +14460,7 @@
         <v>729</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>731</v>
@@ -14397,7 +14501,7 @@
         <v>730</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>20</v>
@@ -14736,25 +14840,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -14768,25 +14872,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>7</v>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="1017">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3703,6 +3703,61 @@
   </si>
   <si>
     <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4679,7 +4734,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6877,9 +6932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10296,10 +10351,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179:E182"/>
+    <sheetView topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270:XFD282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13121,6 +13176,149 @@
       </c>
       <c r="C256" s="1" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -13134,7 +13332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
@@ -13979,10 +14177,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14516,6 +14714,26 @@
         <v>736</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14525,10 +14743,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="A11:K11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14871,33 +15089,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F12"/>
@@ -14946,9 +15138,6 @@
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F27"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -2220,51 +2220,1557 @@
     <t>FUNCTION_BODY</t>
   </si>
   <si>
+    <t>functionDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functionBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面唯一标识</t>
+  </si>
+  <si>
+    <t>DOC_ID</t>
+  </si>
+  <si>
+    <t>显示顺序</t>
+  </si>
+  <si>
+    <t>DISPLAY_ORDER</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>CSS_NAMES</t>
+  </si>
+  <si>
+    <t>组件类型</t>
+  </si>
+  <si>
+    <t>COMPONENT_TYPE</t>
+  </si>
+  <si>
+    <t>docId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发名</t>
+  </si>
+  <si>
+    <t>TIGGER_NAME</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父背板位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTAINER_TYPE</t>
+  </si>
+  <si>
+    <t>LAYOUT_TYPE</t>
+  </si>
+  <si>
+    <t>POSITION_IN_PARENT</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>containerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>positionInParent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayoutContainerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayoutAttributePrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayoutType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单行靠左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单行靠右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nomal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionInParent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>East</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayoutComponentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCollapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCollapseItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcFormItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_MAPPER</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_PREFIX</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_NAME</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_DEFAULT</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>T_LAYOUT</t>
+  </si>
+  <si>
+    <t>T_LAYOUT_CSS</t>
+  </si>
+  <si>
+    <t>T_LAYOUT_FUNCTION</t>
+  </si>
+  <si>
+    <t>T_LAYOUT_COMPONENT</t>
+  </si>
+  <si>
+    <t>T_LAYOUT_COMPONENT_EXT</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NdTableMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/01/01 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NdTableMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源名称列表</t>
+  </si>
+  <si>
+    <t>DATA_SOURSE_NAME</t>
+  </si>
+  <si>
+    <t>方法列表</t>
+  </si>
+  <si>
+    <t>FUNCTION_LIST</t>
+  </si>
+  <si>
+    <t>初始化方法</t>
+  </si>
+  <si>
+    <t>INIT_FUNCTION_LIST</t>
+  </si>
+  <si>
+    <t>lAttributeMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lAttributePrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lAttributeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lAttributeDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lAttributeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>初始化数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCollapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCollapseItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcFormItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTextArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPercentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTransfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcRadio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcCheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formItemSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORM_ITEM_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM占位大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIND_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authMenuButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_MENU_BUTTON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CODE,NAME,LAYOUT_ND_CODE,DATA_SOURSE_NAME,FUNCTION_LIST,INIT_FUNCTION_LIST,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,NAME,DESCRIPT,CSS_BODY,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,NAME,DESCRIPT,FUNCTION_PARAM,FUNCTION_BODY,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,DOC_ID,DISPLAY_ORDER,CSS_NAMES,COMPONENT_TYPE,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,TIGGER_NAME,FUNCTION_NAME,FUNCTION_PARAM,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIND_ND_CODE</t>
+  </si>
+  <si>
+    <t>绑定结构编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>LcComponentTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件模板值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcComponentTemplateValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板起始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templateBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPLATE_BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAttributesDefinitionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_LAYOUT_ATTRIBUTES_DEFINITION</t>
+  </si>
+  <si>
+    <t>T_LAYOUT_COMPONENT_EVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_LAYOUT_COMPONENT_TEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CREATEOR,CREATE_TIME,MODIFYER,UPDATE_TIME,VERSION,TEMPLATE_START,TEMPLATE_BODY,TEMPLATE_END</t>
+  </si>
+  <si>
+    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CREATEOR,CREATE_TIME,MODIFYER,UPDATE_TIME,VERSION,COMPONENT_TYPE,ATTRIBUTE_NAME,ATTRIBUTE_DEFAULT,ATTRIBUTE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lDataSourseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lFunctionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lInitFunctionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>componentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindNdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.icoresys.sysadmin.vo.DictionaryValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LInitDataSourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>functionName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>functionDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>functionParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>functionBody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面唯一标识</t>
-  </si>
-  <si>
-    <t>DOC_ID</t>
-  </si>
-  <si>
-    <t>显示顺序</t>
-  </si>
-  <si>
-    <t>DISPLAY_ORDER</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>CSS_NAMES</t>
-  </si>
-  <si>
-    <t>组件类型</t>
-  </si>
-  <si>
-    <t>COMPONENT_TYPE</t>
-  </si>
-  <si>
-    <t>docId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayOrder</t>
+    <t>tiggerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2272,133 +3778,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发名</t>
-  </si>
-  <si>
-    <t>TIGGER_NAME</t>
-  </si>
-  <si>
-    <t>tiggerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父背板位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTAINER_TYPE</t>
-  </si>
-  <si>
-    <t>LAYOUT_TYPE</t>
-  </si>
-  <si>
-    <t>POSITION_IN_PARENT</t>
-  </si>
-  <si>
-    <t>LABEL</t>
-  </si>
-  <si>
-    <t>containerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>positionInParent</t>
+    <t>formItemSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2406,1387 +3786,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayoutContainerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayoutAttributePrefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>At</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayoutType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Border</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单行靠左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单行靠右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nomal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositionInParent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>East</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LayoutComponentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcCollapse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcCollapseItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcDialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcFormItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcPagination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIBUTE_MAPPER</t>
-  </si>
-  <si>
-    <t>ATTRIBUTE_PREFIX</t>
-  </si>
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>ATTRIBUTE_DEFAULT</t>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>T_LAYOUT</t>
-  </si>
-  <si>
-    <t>T_LAYOUT_CSS</t>
-  </si>
-  <si>
-    <t>T_LAYOUT_FUNCTION</t>
-  </si>
-  <si>
-    <t>T_LAYOUT_COMPONENT</t>
-  </si>
-  <si>
-    <t>T_LAYOUT_COMPONENT_EXT</t>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NdTableMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/01/01 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NdTableMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIBUTE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据源名称列表</t>
-  </si>
-  <si>
-    <t>DATA_SOURSE_NAME</t>
-  </si>
-  <si>
-    <t>方法列表</t>
-  </si>
-  <si>
-    <t>FUNCTION_LIST</t>
-  </si>
-  <si>
-    <t>初始化方法</t>
-  </si>
-  <si>
-    <t>INIT_FUNCTION_LIST</t>
-  </si>
-  <si>
-    <t>lAttributeMapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lAttributePrefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lAttributeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lAttributeDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lAttributeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>初始化数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcCollapse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcCollapseItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcDialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcFormItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcPagination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTextArea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcPercentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcDateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcUpload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTransfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcRadio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcCheckbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formItemSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formItemSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ndcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORM_ITEM_SIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM占位大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bindData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIND_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authMenuButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_MENU_BUTTON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cssName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAYOUT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAYOUT_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CODE,NAME,LAYOUT_ND_CODE,DATA_SOURSE_NAME,FUNCTION_LIST,INIT_FUNCTION_LIST,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,NAME,DESCRIPT,CSS_BODY,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,NAME,DESCRIPT,FUNCTION_PARAM,FUNCTION_BODY,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,DOC_ID,DISPLAY_ORDER,CSS_NAMES,COMPONENT_TYPE,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,TIGGER_NAME,FUNCTION_NAME,FUNCTION_PARAM,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIND_ND_CODE</t>
-  </si>
-  <si>
-    <t>绑定结构编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>Layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>LcComponentTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件模板值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcComponentTemplateValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMPLATE_START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMPLATE_END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板起始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templateBody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMPLATE_BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>0106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAttributesDefinitionValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_LAYOUT_ATTRIBUTES_DEFINITION</t>
-  </si>
-  <si>
-    <t>T_LAYOUT_COMPONENT_EVENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_LAYOUT_COMPONENT_TEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CREATEOR,CREATE_TIME,MODIFYER,UPDATE_TIME,VERSION,TEMPLATE_START,TEMPLATE_BODY,TEMPLATE_END</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CREATEOR,CREATE_TIME,MODIFYER,UPDATE_TIME,VERSION,COMPONENT_TYPE,ATTRIBUTE_NAME,ATTRIBUTE_DEFAULT,ATTRIBUTE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lDataSourseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lFunctionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lInitFunctionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>componentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bindNdCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info.icoresys.sysadmin.vo.DictionaryValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LInitDataSourse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LMethod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4522,7 +4522,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4532,107 +4532,107 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>849</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="I13" s="5" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="I14" s="5" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
@@ -4648,47 +4648,47 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="I15" s="9"/>
       <c r="K15" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L18" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -4702,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5189,7 +5189,7 @@
         <v>129</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>233</v>
@@ -5227,7 +5227,7 @@
         <v>556</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>557</v>
@@ -5236,7 +5236,7 @@
         <v>487</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>128</v>
@@ -5283,7 +5283,7 @@
         <v>519</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>558</v>
@@ -5339,7 +5339,7 @@
         <v>520</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>559</v>
@@ -5395,7 +5395,7 @@
         <v>521</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>560</v>
@@ -5451,7 +5451,7 @@
         <v>522</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>561</v>
@@ -5507,7 +5507,7 @@
         <v>523</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>561</v>
@@ -5619,7 +5619,7 @@
         <v>525</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>562</v>
@@ -5675,7 +5675,7 @@
         <v>526</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>562</v>
@@ -6403,7 +6403,7 @@
         <v>539</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>562</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -6512,7 +6512,7 @@
         <v>451</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>493</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -6568,13 +6568,13 @@
         <v>451</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>513</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -6624,16 +6624,16 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>561</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>12</v>
@@ -6683,13 +6683,13 @@
         <v>544</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>12</v>
@@ -6698,7 +6698,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>402</v>
@@ -6739,13 +6739,13 @@
         <v>545</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>12</v>
@@ -6795,13 +6795,13 @@
         <v>546</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>12</v>
@@ -6851,13 +6851,13 @@
         <v>547</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>12</v>
@@ -6901,9 +6901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8817,7 +8817,7 @@
         <v>564</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>565</v>
@@ -8858,7 +8858,7 @@
         <v>568</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>566</v>
@@ -8937,10 +8937,10 @@
         <v>521</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>573</v>
@@ -8981,7 +8981,7 @@
         <v>577</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>574</v>
@@ -9060,10 +9060,10 @@
         <v>524</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>587</v>
+        <v>1017</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>581</v>
@@ -9101,10 +9101,10 @@
         <v>525</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>582</v>
@@ -9142,7 +9142,7 @@
         <v>526</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>589</v>
+        <v>1018</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>584</v>
@@ -9183,7 +9183,7 @@
         <v>527</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>586</v>
@@ -9224,13 +9224,13 @@
         <v>528</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>133</v>
@@ -9265,13 +9265,13 @@
         <v>529</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>136</v>
@@ -9306,16 +9306,16 @@
         <v>530</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>601</v>
+        <v>1020</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>7</v>
@@ -9347,16 +9347,16 @@
         <v>531</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>571</v>
@@ -9391,13 +9391,13 @@
         <v>532</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>605</v>
+        <v>1019</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>133</v>
@@ -9432,19 +9432,19 @@
         <v>533</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>7</v>
@@ -9476,13 +9476,13 @@
         <v>534</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>223</v>
@@ -9520,19 +9520,19 @@
         <v>535</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>223</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>7</v>
@@ -9564,13 +9564,13 @@
         <v>536</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>642</v>
+        <v>1022</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>133</v>
@@ -9605,10 +9605,10 @@
         <v>537</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>516</v>
@@ -9646,10 +9646,10 @@
         <v>538</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>518</v>
@@ -9658,7 +9658,7 @@
         <v>517</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>9</v>
@@ -9690,10 +9690,10 @@
         <v>539</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>514</v>
@@ -9731,10 +9731,10 @@
         <v>540</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>515</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>14</v>
@@ -9769,22 +9769,22 @@
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>223</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>7</v>
@@ -9816,16 +9816,16 @@
         <v>542</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>133</v>
+        <v>599</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>7</v>
@@ -9857,16 +9857,16 @@
         <v>543</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>133</v>
+        <v>599</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>7</v>
@@ -9898,16 +9898,16 @@
         <v>544</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>133</v>
+        <v>599</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>7</v>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>14</v>
@@ -9936,16 +9936,16 @@
         <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>866</v>
+        <v>1021</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>136</v>
@@ -9962,7 +9962,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>14</v>
@@ -9977,16 +9977,16 @@
         <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>878</v>
+        <v>1023</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>133</v>
@@ -10021,22 +10021,22 @@
         <v>547</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>186</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>7</v>
@@ -10050,7 +10050,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
@@ -10065,16 +10065,16 @@
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>133</v>
@@ -10109,13 +10109,13 @@
         <v>549</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>133</v>
@@ -10150,13 +10150,13 @@
         <v>550</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>133</v>
@@ -10191,13 +10191,13 @@
         <v>551</v>
       </c>
       <c r="G82" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>133</v>
@@ -10322,7 +10322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C184" sqref="A184:C184"/>
     </sheetView>
   </sheetViews>
@@ -11345,13 +11345,13 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -11359,7 +11359,7 @@
         <v>519</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>61</v>
@@ -11370,10 +11370,10 @@
         <v>520</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -11381,7 +11381,7 @@
         <v>521</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>62</v>
@@ -11392,7 +11392,7 @@
         <v>522</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>63</v>
@@ -11403,7 +11403,7 @@
         <v>527</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>33</v>
@@ -11414,10 +11414,10 @@
         <v>528</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -11425,7 +11425,7 @@
         <v>523</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>73</v>
@@ -11436,7 +11436,7 @@
         <v>524</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>74</v>
@@ -11447,7 +11447,7 @@
         <v>525</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>75</v>
@@ -11458,7 +11458,7 @@
         <v>526</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>195</v>
@@ -11469,10 +11469,10 @@
         <v>529</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -11513,10 +11513,10 @@
         <v>533</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -11524,7 +11524,7 @@
         <v>534</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>61</v>
@@ -11535,10 +11535,10 @@
         <v>535</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -11546,7 +11546,7 @@
         <v>536</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>62</v>
@@ -11557,7 +11557,7 @@
         <v>537</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>63</v>
@@ -11568,10 +11568,10 @@
         <v>542</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -11579,10 +11579,10 @@
         <v>543</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -11590,7 +11590,7 @@
         <v>538</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>73</v>
@@ -11601,7 +11601,7 @@
         <v>539</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>74</v>
@@ -11612,7 +11612,7 @@
         <v>540</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>75</v>
@@ -11623,7 +11623,7 @@
         <v>541</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>195</v>
@@ -11634,10 +11634,10 @@
         <v>544</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -11645,10 +11645,10 @@
         <v>545</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -11656,7 +11656,7 @@
         <v>546</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>61</v>
@@ -11667,10 +11667,10 @@
         <v>547</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -11678,7 +11678,7 @@
         <v>548</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>62</v>
@@ -11689,7 +11689,7 @@
         <v>549</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>63</v>
@@ -11703,12 +11703,12 @@
         <v>572</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>572</v>
@@ -11722,7 +11722,7 @@
         <v>550</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>73</v>
@@ -11733,7 +11733,7 @@
         <v>551</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>74</v>
@@ -11744,7 +11744,7 @@
         <v>552</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>75</v>
@@ -11755,7 +11755,7 @@
         <v>553</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>195</v>
@@ -11763,43 +11763,43 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>572</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>61</v>
@@ -11807,21 +11807,21 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>62</v>
@@ -11829,10 +11829,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>63</v>
@@ -11840,10 +11840,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>73</v>
@@ -11851,10 +11851,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>74</v>
@@ -11862,10 +11862,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>75</v>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>195</v>
@@ -11884,54 +11884,54 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>61</v>
@@ -11939,21 +11939,21 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>62</v>
@@ -11961,10 +11961,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>63</v>
@@ -11972,10 +11972,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>73</v>
@@ -11983,10 +11983,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>74</v>
@@ -11994,10 +11994,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>75</v>
@@ -12005,10 +12005,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>195</v>
@@ -12016,43 +12016,43 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>7</v>
@@ -12060,10 +12060,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>61</v>
@@ -12071,10 +12071,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>21</v>
@@ -12082,10 +12082,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>62</v>
@@ -12093,10 +12093,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>63</v>
@@ -12104,32 +12104,32 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>67</v>
@@ -12137,10 +12137,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>73</v>
@@ -12148,10 +12148,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>74</v>
@@ -12159,10 +12159,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>75</v>
@@ -12170,10 +12170,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>195</v>
@@ -12181,10 +12181,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>242</v>
@@ -12192,10 +12192,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>7</v>
@@ -12203,10 +12203,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>61</v>
@@ -12214,10 +12214,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>21</v>
@@ -12225,10 +12225,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>62</v>
@@ -12236,10 +12236,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>63</v>
@@ -12247,21 +12247,21 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>73</v>
@@ -12269,10 +12269,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>74</v>
@@ -12280,10 +12280,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>75</v>
@@ -12291,10 +12291,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>195</v>
@@ -12302,65 +12302,65 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>7</v>
@@ -12368,10 +12368,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>61</v>
@@ -12379,10 +12379,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>21</v>
@@ -12390,10 +12390,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>62</v>
@@ -12401,10 +12401,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>63</v>
@@ -12412,10 +12412,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>73</v>
@@ -12423,10 +12423,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>74</v>
@@ -12434,10 +12434,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>75</v>
@@ -12445,10 +12445,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>195</v>
@@ -12456,40 +12456,40 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>579</v>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>579</v>
@@ -12511,7 +12511,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>579</v>
@@ -12522,7 +12522,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>579</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>579</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>579</v>
@@ -12555,7 +12555,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>579</v>
@@ -12566,7 +12566,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>579</v>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>579</v>
@@ -12588,7 +12588,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>579</v>
@@ -12599,7 +12599,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>579</v>
@@ -12610,7 +12610,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>579</v>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>579</v>
@@ -12632,7 +12632,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>579</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>579</v>
@@ -12654,7 +12654,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>579</v>
@@ -12665,21 +12665,21 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>579</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>7</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>61</v>
@@ -12698,10 +12698,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>21</v>
@@ -12709,10 +12709,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>62</v>
@@ -12720,10 +12720,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>63</v>
@@ -12731,10 +12731,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>73</v>
@@ -12742,10 +12742,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>74</v>
@@ -12753,10 +12753,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>75</v>
@@ -12764,10 +12764,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>195</v>
@@ -12775,10 +12775,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>528</v>
@@ -12786,10 +12786,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>529</v>
@@ -12797,10 +12797,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>530</v>
@@ -12808,10 +12808,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>531</v>
@@ -12819,21 +12819,21 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>7</v>
@@ -12841,10 +12841,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>61</v>
@@ -12852,10 +12852,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>21</v>
@@ -12863,10 +12863,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>62</v>
@@ -12874,10 +12874,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>63</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>73</v>
@@ -12896,10 +12896,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>74</v>
@@ -12907,10 +12907,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>75</v>
@@ -12918,10 +12918,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>195</v>
@@ -12929,10 +12929,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>528</v>
@@ -12940,10 +12940,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>529</v>
@@ -12951,10 +12951,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>530</v>
@@ -12962,10 +12962,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>531</v>
@@ -12973,54 +12973,54 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>7</v>
@@ -13028,10 +13028,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>61</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>21</v>
@@ -13050,10 +13050,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>62</v>
@@ -13061,10 +13061,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>63</v>
@@ -13072,32 +13072,32 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="C251" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>67</v>
@@ -13105,10 +13105,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>73</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>74</v>
@@ -13127,10 +13127,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>75</v>
@@ -13138,10 +13138,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>195</v>
@@ -13149,10 +13149,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>242</v>
@@ -13160,10 +13160,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>7</v>
@@ -13171,10 +13171,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>61</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>21</v>
@@ -13193,10 +13193,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>62</v>
@@ -13204,10 +13204,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>63</v>
@@ -13215,21 +13215,21 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>73</v>
@@ -13237,10 +13237,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>74</v>
@@ -13248,10 +13248,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>75</v>
@@ -13259,10 +13259,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>195</v>
@@ -13270,10 +13270,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>549</v>
@@ -13281,10 +13281,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>550</v>
@@ -13292,10 +13292,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>551</v>
@@ -13313,7 +13313,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13348,13 +13348,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -13362,7 +13362,7 @@
         <v>519</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>524</v>
@@ -13373,7 +13373,7 @@
         <v>520</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>525</v>
@@ -13384,7 +13384,7 @@
         <v>521</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>526</v>
@@ -13395,7 +13395,7 @@
         <v>522</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>527</v>
@@ -13406,7 +13406,7 @@
         <v>523</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>528</v>
@@ -13417,7 +13417,7 @@
         <v>524</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>529</v>
@@ -13428,7 +13428,7 @@
         <v>525</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>530</v>
@@ -13439,7 +13439,7 @@
         <v>526</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>531</v>
@@ -13450,7 +13450,7 @@
         <v>527</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>532</v>
@@ -13461,7 +13461,7 @@
         <v>528</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>533</v>
@@ -13472,7 +13472,7 @@
         <v>529</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>534</v>
@@ -13483,7 +13483,7 @@
         <v>530</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>535</v>
@@ -13494,7 +13494,7 @@
         <v>531</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>536</v>
@@ -13505,7 +13505,7 @@
         <v>532</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>537</v>
@@ -13516,7 +13516,7 @@
         <v>533</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>538</v>
@@ -13527,7 +13527,7 @@
         <v>534</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>539</v>
@@ -13538,7 +13538,7 @@
         <v>535</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>540</v>
@@ -13549,7 +13549,7 @@
         <v>536</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>524</v>
@@ -13560,7 +13560,7 @@
         <v>537</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>525</v>
@@ -13571,7 +13571,7 @@
         <v>538</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>526</v>
@@ -13582,7 +13582,7 @@
         <v>539</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>527</v>
@@ -13593,7 +13593,7 @@
         <v>540</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>528</v>
@@ -13604,7 +13604,7 @@
         <v>541</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>529</v>
@@ -13615,7 +13615,7 @@
         <v>542</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>530</v>
@@ -13626,7 +13626,7 @@
         <v>543</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>531</v>
@@ -13637,7 +13637,7 @@
         <v>544</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>532</v>
@@ -13648,7 +13648,7 @@
         <v>545</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>533</v>
@@ -13659,7 +13659,7 @@
         <v>546</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>534</v>
@@ -13670,7 +13670,7 @@
         <v>547</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>535</v>
@@ -13681,7 +13681,7 @@
         <v>548</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>536</v>
@@ -13692,7 +13692,7 @@
         <v>549</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>537</v>
@@ -13703,7 +13703,7 @@
         <v>550</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>538</v>
@@ -13714,7 +13714,7 @@
         <v>551</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>539</v>
@@ -13725,7 +13725,7 @@
         <v>552</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>540</v>
@@ -13736,10 +13736,10 @@
         <v>553</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -13747,406 +13747,406 @@
         <v>554</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>527</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>527</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>528</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>528</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>531</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>531</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>532</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>532</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>533</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>533</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>534</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>534</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>537</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>537</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>538</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>538</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>539</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>539</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>540</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>540</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -14159,8 +14159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14503,13 +14503,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
@@ -14518,13 +14518,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>20</v>
@@ -14533,10 +14533,10 @@
         <v>9</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -14547,22 +14547,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>20</v>
@@ -14571,10 +14571,10 @@
         <v>9</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -14585,22 +14585,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -14609,10 +14609,10 @@
         <v>9</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -14623,25 +14623,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>20</v>
@@ -14650,10 +14650,10 @@
         <v>9</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -14664,22 +14664,22 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>20</v>
@@ -14688,10 +14688,10 @@
         <v>9</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -14711,13 +14711,13 @@
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
@@ -14726,7 +14726,7 @@
         <v>7</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>403</v>
@@ -14749,7 +14749,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -14769,7 +14769,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -14789,13 +14789,13 @@
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>12</v>
@@ -14804,7 +14804,7 @@
         <v>7</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>403</v>
@@ -14957,7 +14957,7 @@
         <v>555</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>495</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -14989,10 +14989,10 @@
         <v>571</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -15006,7 +15006,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -15021,10 +15021,10 @@
         <v>572</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -15053,10 +15053,10 @@
         <v>579</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -15082,13 +15082,13 @@
         <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -15105,7 +15105,7 @@
         <v>523</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>493</v>
@@ -15134,25 +15134,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -15225,8 +15225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16382,16 +16382,16 @@
         <v>125</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>7</v>
@@ -16417,16 +16417,16 @@
         <v>125</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>504</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>7</v>
@@ -16452,16 +16452,16 @@
         <v>125</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>7</v>
@@ -16487,13 +16487,13 @@
         <v>125</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>508</v>
@@ -16522,13 +16522,13 @@
         <v>125</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>509</v>
@@ -16557,13 +16557,13 @@
         <v>125</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>510</v>
@@ -16592,13 +16592,13 @@
         <v>125</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>511</v>
@@ -16627,13 +16627,13 @@
         <v>125</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>457</v>
@@ -16662,13 +16662,13 @@
         <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>458</v>
@@ -16697,13 +16697,13 @@
         <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>459</v>
@@ -16732,7 +16732,7 @@
         <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>69</v>
@@ -16767,7 +16767,7 @@
         <v>125</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>70</v>
@@ -16802,7 +16802,7 @@
         <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>71</v>
@@ -16837,7 +16837,7 @@
         <v>125</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>72</v>
@@ -16872,7 +16872,7 @@
         <v>125</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>73</v>
@@ -16907,7 +16907,7 @@
         <v>125</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>74</v>
@@ -16942,7 +16942,7 @@
         <v>125</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>75</v>
@@ -16977,7 +16977,7 @@
         <v>125</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>195</v>
@@ -17012,7 +17012,7 @@
         <v>125</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>196</v>
@@ -17047,7 +17047,7 @@
         <v>125</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>76</v>
@@ -17082,7 +17082,7 @@
         <v>125</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>77</v>
@@ -17117,7 +17117,7 @@
         <v>125</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>78</v>
@@ -17126,7 +17126,7 @@
         <v>482</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>7</v>
@@ -17152,7 +17152,7 @@
         <v>125</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>103</v>
@@ -17187,7 +17187,7 @@
         <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>104</v>
@@ -17228,10 +17228,10 @@
         <v>133</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>7</v>
@@ -17263,10 +17263,10 @@
         <v>504</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>7</v>
@@ -17298,10 +17298,10 @@
         <v>137</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>7</v>
@@ -17333,10 +17333,10 @@
         <v>133</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>7</v>
@@ -17368,10 +17368,10 @@
         <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>7</v>
@@ -17403,10 +17403,10 @@
         <v>137</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>7</v>
@@ -17420,7 +17420,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B63" s="1">
         <v>7</v>
@@ -17435,13 +17435,13 @@
         <v>579</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>7</v>
@@ -17455,7 +17455,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B64" s="1">
         <v>7</v>
@@ -17473,10 +17473,10 @@
         <v>133</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>7</v>
@@ -17490,7 +17490,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B65" s="1">
         <v>7</v>
@@ -17508,10 +17508,10 @@
         <v>504</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>7</v>
@@ -17525,7 +17525,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B66" s="1">
         <v>7</v>
@@ -17543,10 +17543,10 @@
         <v>137</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>7</v>
@@ -17560,7 +17560,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B67" s="1">
         <v>7</v>
@@ -17578,10 +17578,10 @@
         <v>138</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>7</v>
@@ -17595,7 +17595,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B68" s="1">
         <v>7</v>
@@ -17613,10 +17613,10 @@
         <v>139</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>7</v>
@@ -17630,7 +17630,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B69" s="1">
         <v>7</v>
@@ -17642,16 +17642,16 @@
         <v>125</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>7</v>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="数据字典值表数据" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="1026">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3417,21 +3418,6 @@
     <t>239</t>
   </si>
   <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CODE,NAME,LAYOUT_ND_CODE,DATA_SOURSE_NAME,FUNCTION_LIST,INIT_FUNCTION_LIST,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,NAME,DESCRIPT,CSS_BODY,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,NAME,DESCRIPT,FUNCTION_PARAM,FUNCTION_BODY,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,DOC_ID,DISPLAY_ORDER,CSS_NAMES,COMPONENT_TYPE,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,TIGGER_NAME,FUNCTION_NAME,FUNCTION_PARAM,CREATOR,CREATE_TIME,MODIFIER,UPDATE_TIME</t>
-  </si>
-  <si>
     <t>130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3707,13 +3693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CREATEOR,CREATE_TIME,MODIFYER,UPDATE_TIME,VERSION,TEMPLATE_START,TEMPLATE_BODY,TEMPLATE_END</t>
-  </si>
-  <si>
-    <t>ID,ND_CODE,ND_NAME,ND_TYPE,PARENT_ID,CREATEOR,CREATE_TIME,MODIFYER,UPDATE_TIME,VERSION,COMPONENT_TYPE,ATTRIBUTE_NAME,ATTRIBUTE_DEFAULT,ATTRIBUTE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>195</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3787,6 +3766,36 @@
   </si>
   <si>
     <t>bindData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,code,name,creator,createTime,modifier,updateTime,layoutNdCode,lDataSourseName,lFunctionList,lInitFunctionList</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,name,descript,creator,createTime,modifier,updateTime,cssBody</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,name,descript,creator,createTime,modifier,updateTime,functionParam,functionBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,functionName,functionParam,tiggerName</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,version,componentType,fdName,lAttributeName,lAttributeDefault,lAttributeType</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,version,templateStart,templateBody,templateEnd</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,docId,displayOrder,cssNames,componentType</t>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4702,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:H33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5189,7 +5198,7 @@
         <v>129</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>233</v>
@@ -5227,7 +5236,7 @@
         <v>556</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>557</v>
@@ -5395,7 +5404,7 @@
         <v>521</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>560</v>
@@ -5451,7 +5460,7 @@
         <v>522</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>561</v>
@@ -5507,7 +5516,7 @@
         <v>523</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>561</v>
@@ -5619,7 +5628,7 @@
         <v>525</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>562</v>
@@ -5675,7 +5684,7 @@
         <v>526</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>562</v>
@@ -6571,7 +6580,7 @@
         <v>753</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>892</v>
@@ -6627,7 +6636,7 @@
         <v>806</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>561</v>
@@ -6742,7 +6751,7 @@
         <v>898</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>900</v>
@@ -6795,13 +6804,13 @@
         <v>546</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>12</v>
@@ -6851,13 +6860,13 @@
         <v>547</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>12</v>
@@ -6901,7 +6910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
@@ -9060,7 +9069,7 @@
         <v>524</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>910</v>
@@ -9142,7 +9151,7 @@
         <v>526</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>584</v>
@@ -9306,7 +9315,7 @@
         <v>530</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>594</v>
@@ -9347,7 +9356,7 @@
         <v>531</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>596</v>
@@ -9391,7 +9400,7 @@
         <v>532</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>601</v>
@@ -9564,7 +9573,7 @@
         <v>536</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>635</v>
@@ -9816,7 +9825,7 @@
         <v>542</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>784</v>
@@ -9857,7 +9866,7 @@
         <v>543</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>786</v>
@@ -9898,7 +9907,7 @@
         <v>544</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>788</v>
@@ -9939,7 +9948,7 @@
         <v>867</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>868</v>
@@ -9980,7 +9989,7 @@
         <v>871</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>872</v>
@@ -10050,7 +10059,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
@@ -10065,16 +10074,16 @@
         <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>133</v>
@@ -10109,13 +10118,13 @@
         <v>549</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>133</v>
@@ -10150,13 +10159,13 @@
         <v>550</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>133</v>
@@ -10191,13 +10200,13 @@
         <v>551</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H82" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>133</v>
@@ -12253,7 +12262,7 @@
         <v>753</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -12346,13 +12355,13 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -12830,7 +12839,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>745</v>
@@ -12841,7 +12850,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>745</v>
@@ -12852,7 +12861,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>745</v>
@@ -12863,7 +12872,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>745</v>
@@ -12874,7 +12883,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>745</v>
@@ -12885,7 +12894,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>745</v>
@@ -12896,7 +12905,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>745</v>
@@ -12907,7 +12916,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>745</v>
@@ -12918,7 +12927,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>745</v>
@@ -12929,7 +12938,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>745</v>
@@ -12940,7 +12949,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>745</v>
@@ -12951,7 +12960,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>745</v>
@@ -12962,7 +12971,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>745</v>
@@ -12973,18 +12982,18 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>745</v>
@@ -12995,32 +13004,32 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>7</v>
@@ -13028,10 +13037,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>61</v>
@@ -13039,10 +13048,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>21</v>
@@ -13050,10 +13059,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>62</v>
@@ -13061,10 +13070,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>63</v>
@@ -13072,10 +13081,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>914</v>
@@ -13083,10 +13092,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>915</v>
@@ -13094,10 +13103,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>67</v>
@@ -13105,10 +13114,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>73</v>
@@ -13116,10 +13125,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>74</v>
@@ -13127,10 +13136,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>75</v>
@@ -13138,10 +13147,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>195</v>
@@ -13149,10 +13158,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>242</v>
@@ -13160,10 +13169,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>7</v>
@@ -13171,10 +13180,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>61</v>
@@ -13182,10 +13191,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>21</v>
@@ -13193,10 +13202,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>62</v>
@@ -13204,10 +13213,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>63</v>
@@ -13215,21 +13224,21 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>73</v>
@@ -13237,10 +13246,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>74</v>
@@ -13248,10 +13257,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>75</v>
@@ -13259,10 +13268,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>195</v>
@@ -13270,10 +13279,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>549</v>
@@ -13281,10 +13290,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>550</v>
@@ -13292,10 +13301,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>551</v>
@@ -13310,10 +13319,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14149,6 +14158,17 @@
         <v>756</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14159,8 +14179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N19" sqref="A19:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14524,7 +14544,7 @@
         <v>716</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>918</v>
+        <v>1017</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>20</v>
@@ -14562,7 +14582,7 @@
         <v>717</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>919</v>
+        <v>1018</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>20</v>
@@ -14600,7 +14620,7 @@
         <v>718</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>920</v>
+        <v>1019</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -14638,7 +14658,7 @@
         <v>719</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>921</v>
+        <v>1023</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>720</v>
@@ -14676,10 +14696,10 @@
         <v>731</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>922</v>
+        <v>1020</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>20</v>
@@ -14711,13 +14731,13 @@
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
@@ -14749,7 +14769,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -14769,7 +14789,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -14789,13 +14809,13 @@
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>12</v>
@@ -14822,7 +14842,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15134,25 +15154,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="1361">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4808,6 +4808,30 @@
   </si>
   <si>
     <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4984,27 +5008,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5884,7 +5888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -8251,9 +8255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92:XFD92"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12083,10 +12087,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C475"/>
+  <dimension ref="A1:D850"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A818" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O828" sqref="O828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14874,7 +14878,7 @@
         <v>506</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>516</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
@@ -17198,7 +17202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>1296</v>
       </c>
@@ -17209,7 +17213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>1297</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>1298</v>
       </c>
@@ -17231,7 +17235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
         <v>1299</v>
       </c>
@@ -17242,7 +17246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
         <v>1300</v>
       </c>
@@ -17253,7 +17257,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
         <v>1301</v>
       </c>
@@ -17264,7 +17268,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>1302</v>
       </c>
@@ -17275,7 +17279,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
         <v>1303</v>
       </c>
@@ -17286,7 +17290,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
         <v>1304</v>
       </c>
@@ -17297,7 +17301,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>1305</v>
       </c>
@@ -17308,7 +17312,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
         <v>1306</v>
       </c>
@@ -17317,6 +17321,4131 @@
       </c>
       <c r="C475" s="1" t="s">
         <v>1320</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A476" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A477" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B478" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B479" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B480" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B481" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B482" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B483" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B484" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B485" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B486" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B487" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B488" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B489" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B490" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B491" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B492" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B493" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B494" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B495" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B496" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B497" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B498" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B499" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B500" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B501" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B502" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B503" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B504" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B505" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B506" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B507" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B508" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B509" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B510" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B511" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B512" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B513" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B514" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B515" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B516" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B517" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B518" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B519" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B520" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B521" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B522" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B523" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B524" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B525" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B526" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="527" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B527" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B528" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B529" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B530" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B531" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B532" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B533" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B534" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B535" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B536" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B537" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B538" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B539" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B540" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B541" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B542" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B543" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B544" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B545" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B546" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B547" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B548" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B549" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B550" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B551" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B552" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B553" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B554" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B555" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B556" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B557" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B558" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B559" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B560" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B561" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="562" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B562" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B563" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B564" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B565" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="566" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B566" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B567" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B568" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B569" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="570" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B570" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B571" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="572" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B572" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B573" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="574" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B574" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B575" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B576" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B577" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B578" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B579" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="580" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B580" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="581" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B581" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="582" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B582" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B583" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B584" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="585" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B585" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B586" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B587" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="588" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B588" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="589" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B589" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="590" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B590" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="591" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B591" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="592" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B592" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B593" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B594" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="595" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B595" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B596" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="597" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B597" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="598" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B598" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="599" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B599" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="600" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B600" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="601" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B601" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="602" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B602" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="603" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B603" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="604" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B604" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="605" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B605" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="606" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B606" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="607" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B607" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="608" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B608" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B609" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B610" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B611" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="612" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B612" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="613" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B613" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="614" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B614" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="615" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B615" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="616" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B616" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="617" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B617" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="618" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B618" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B619" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B620" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="621" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B621" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B622" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="623" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B623" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B624" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="625" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B625" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B626" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B627" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="628" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B628" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B629" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B630" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B631" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B632" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B633" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B634" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="635" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B635" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="636" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B636" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="637" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B637" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="638" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B638" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="639" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B639" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B640" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="641" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B641" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B642" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="643" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B643" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="644" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B644" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="645" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B645" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="646" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B646" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="647" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B647" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="648" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B648" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="649" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B649" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="650" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B650" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="651" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B651" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="652" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B652" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="653" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B653" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="654" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B654" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="655" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B655" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="656" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B656" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="657" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B657" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="658" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B658" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="659" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B659" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="660" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B660" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="661" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B661" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="662" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B662" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="663" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B663" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="664" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B664" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="665" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B665" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="666" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B666" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="667" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B667" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="668" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B668" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="669" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B669" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="670" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B670" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="671" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B671" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="672" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B672" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="673" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B673" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="674" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B674" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="675" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B675" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="676" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B676" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="677" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B677" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="678" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B678" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="679" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B679" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="680" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B680" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="681" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B681" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="682" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B682" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="683" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B683" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="684" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B684" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="685" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B685" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="686" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B686" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="687" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B687" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="688" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B688" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="689" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B689" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="690" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B690" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="691" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B691" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="692" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B692" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="693" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B693" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="694" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B694" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="695" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B695" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="696" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B696" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="697" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B697" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="698" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B698" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="699" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B699" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="700" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B700" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="701" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B701" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C701" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D701" s="10" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="702" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B702" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="703" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B703" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="704" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B704" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="705" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B705" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="706" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B706" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="707" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B707" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="708" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B708" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="709" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B709" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="710" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B710" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="711" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B711" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="712" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B712" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="713" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B713" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="714" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B714" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="715" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B715" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="716" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B716" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="717" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B717" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="718" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B718" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="719" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B719" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="720" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B720" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="721" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B721" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="722" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B722" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="723" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B723" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="724" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B724" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="725" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B725" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="726" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B726" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="727" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B727" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="728" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B728" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="729" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B729" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="730" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B730" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="731" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B731" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="732" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B732" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="733" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B733" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="734" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B734" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="735" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B735" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="736" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B736" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="737" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B737" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="738" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B738" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="739" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B739" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="740" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B740" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="741" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B741" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="742" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B742" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="743" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B743" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="744" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B744" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="745" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B745" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="746" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B746" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="747" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B747" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="748" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B748" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="749" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B749" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="750" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B750" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="751" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B751" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="752" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B752" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="753" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B753" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="754" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B754" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="755" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B755" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="756" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B756" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="757" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B757" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="758" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B758" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="759" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B759" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="760" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B760" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B761" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="762" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B762" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="763" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B763" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="764" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B764" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="765" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B765" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="766" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B766" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="767" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B767" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="768" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B768" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="769" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B769" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="770" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B770" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="771" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B771" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="772" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B772" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="773" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B773" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="774" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B774" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="775" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B775" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="776" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B776" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="777" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B777" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="778" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B778" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="779" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B779" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="780" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B780" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="781" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B781" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="782" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B782" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="783" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B783" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="784" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B784" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="785" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B785" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="786" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B786" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="787" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B787" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="788" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B788" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="789" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B789" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="790" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B790" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="791" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B791" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="792" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B792" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="793" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B793" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="794" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B794" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="795" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B795" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="796" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B796" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="797" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B797" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="798" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B798" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="799" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B799" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="800" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B800" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="801" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B801" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="802" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B802" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="803" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B803" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="804" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B804" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="805" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B805" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="806" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B806" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="807" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B807" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="808" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B808" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="809" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B809" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="810" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B810" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="811" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B811" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="812" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B812" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="813" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B813" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="814" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B814" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="815" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B815" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="816" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B816" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="817" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B817" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="818" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B818" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="819" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B819" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="820" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B820" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="821" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B821" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="822" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B822" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="823" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B823" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="824" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B824" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="825" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B825" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="826" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B826" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="827" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B827" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="828" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B828" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="829" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B829" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="830" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B830" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="831" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B831" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="832" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B832" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="833" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B833" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="834" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B834" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="835" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B835" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="836" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B836" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="837" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B837" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="838" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B838" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="839" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B839" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="840" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B840" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="841" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B841" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="842" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B842" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="843" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B843" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="844" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B844" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="845" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B845" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="846" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B846" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="847" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B847" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="848" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B848" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="849" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B849" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="850" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B850" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -17330,7 +21459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -3171,1719 +3171,1719 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functionParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiggerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssNames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formItemSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,name,descript,creator,createTime,modifier,updateTime,cssBody</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,name,descript,creator,createTime,modifier,updateTime,functionParam,functionBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,version,componentType,fdName,lAttributeName,lAttributeDefault,lAttributeType</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,docId,displayOrder,cssNames,componentType</t>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_LINE</t>
+  </si>
+  <si>
+    <t>是否换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lTableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTabsItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页</t>
+  </si>
+  <si>
+    <t>标签页项目</t>
+  </si>
+  <si>
+    <t>标签页项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTableColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格列</t>
+  </si>
+  <si>
+    <t>表格列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内联框架</t>
+  </si>
+  <si>
+    <t>LcTableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcTabItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>LcIframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lDataFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_FORMAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>723</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcIframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内联框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>844</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lAccordion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手风琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCORDION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lTableColumnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格列类型</t>
+  </si>
+  <si>
+    <t>表格列类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTableColumnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_COLUMN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lTextInLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_IN_LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签内文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lDataSourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcDataSourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>DATA_SOURSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIND_ND_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_SOURSE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LInitDataSourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_LAYOUT_DATA_SOURSE</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,version,templateStart,templateBody,templateEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,code,name,creator,createTime,modifier,updateTime,layoutNdCode,lDataSourseName,lFunctionList,lInitFunctionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,lDataSourseName,bindNdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>initBusinessData</t>
+  </si>
+  <si>
+    <t>初始化业务数据</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> var urlTemp = location.search; if (urlTemp.indexOf("?") != -1) { var str = urlTemp.substr(1); strs = str.split("&amp;"); for (var i = 0; i &lt; strs.length; i++) { var tempParam = strs[i].split("="); !uniqueCode!.$set(!uniqueCode!.dataSource.url, tempParam[0], tempParam[1]); } } var idTemp = 0; if (!uniqueCode!.dataSource.url.id != undefined &amp;&amp; !uniqueCode!.dataSource.url.id != null) { idTemp = !uniqueCode!.dataSource.url.id; } axios.get("http://localhost:18120/base/nv/getNv/" + this.dataSource.ndCode + "/" + idTemp) .then(function (response) { if (response.data.success) { !uniqueCode!.$set(!uniqueCode!.dataSource, name, response.data.data); } else { alert(response.data.message); } }).catch(function (error) { alert(error); }); </t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>01-2月 -18 04.34.27.000000 上午</t>
+  </si>
+  <si>
+    <t>id,ndCode,ndName,ndType,parentId,functionName,functionParam,tiggerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LMethod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>functionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>functionParam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiggerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cssNames</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formItemSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bindData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,name,descript,creator,createTime,modifier,updateTime,cssBody</t>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,name,descript,creator,createTime,modifier,updateTime,functionParam,functionBody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,version,componentType,fdName,lAttributeName,lAttributeDefault,lAttributeType</t>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,docId,displayOrder,cssNames,componentType</t>
-  </si>
-  <si>
-    <t>129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_LINE</t>
-  </si>
-  <si>
-    <t>是否换行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>689</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>694</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>609</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>641</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>676</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lTableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>721</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTabsItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签页</t>
-  </si>
-  <si>
-    <t>标签页项目</t>
-  </si>
-  <si>
-    <t>标签页项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTableColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格列</t>
-  </si>
-  <si>
-    <t>表格列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内联框架</t>
-  </si>
-  <si>
-    <t>LcTableItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcTabItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>LcIframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lDataFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_FORMAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>723</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>725</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>727</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>751</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>755</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>791</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcIframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内联框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>832</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>837</t>
-  </si>
-  <si>
-    <t>838</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>843</t>
-  </si>
-  <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>846</t>
-  </si>
-  <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>851</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>853</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>859</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>862</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>865</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
-    <t>868</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lAccordion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手风琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCORDION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lTableColumnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格列类型</t>
-  </si>
-  <si>
-    <t>表格列类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTableColumnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_COLUMN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LayoutComponentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lTextInLabel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_IN_LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签内文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>871</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lDataSourse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcDataSourse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>873</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>876</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>878</t>
-  </si>
-  <si>
-    <t>879</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>DATA_SOURSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIND_ND_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_SOURSE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LInitDataSourse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_LAYOUT_DATA_SOURSE</t>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,creator,createTime,modifier,updateTime,version,templateStart,templateBody,templateEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,code,name,creator,createTime,modifier,updateTime,layoutNdCode,lDataSourseName,lFunctionList,lInitFunctionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,lDataSourseName,bindNdCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>initBusinessData</t>
-  </si>
-  <si>
-    <t>初始化业务数据</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> var urlTemp = location.search; if (urlTemp.indexOf("?") != -1) { var str = urlTemp.substr(1); strs = str.split("&amp;"); for (var i = 0; i &lt; strs.length; i++) { var tempParam = strs[i].split("="); !uniqueCode!.$set(!uniqueCode!.dataSource.url, tempParam[0], tempParam[1]); } } var idTemp = 0; if (!uniqueCode!.dataSource.url.id != undefined &amp;&amp; !uniqueCode!.dataSource.url.id != null) { idTemp = !uniqueCode!.dataSource.url.id; } axios.get("http://localhost:18120/base/nv/getNv/" + this.dataSource.ndCode + "/" + idTemp) .then(function (response) { if (response.data.success) { !uniqueCode!.$set(!uniqueCode!.dataSource, name, response.data.data); } else { alert(response.data.message); } }).catch(function (error) { alert(error); }); </t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>01-2月 -18 04.34.27.000000 上午</t>
-  </si>
-  <si>
-    <t>id,ndCode,ndName,ndType,parentId,functionName,functionParam,tiggerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5941,7 +5941,7 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="F13:G14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6689,7 +6689,7 @@
         <v>501</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>841</v>
+        <v>1371</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>540</v>
@@ -6745,7 +6745,7 @@
         <v>502</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>540</v>
@@ -7417,7 +7417,7 @@
         <v>514</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>541</v>
@@ -7697,7 +7697,7 @@
         <v>519</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>541</v>
@@ -7865,7 +7865,7 @@
         <v>732</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>540</v>
@@ -8145,13 +8145,13 @@
         <v>527</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>539</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>12</v>
@@ -8201,13 +8201,13 @@
         <v>528</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>539</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>12</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="41" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B41" s="10">
         <v>1</v>
@@ -8254,16 +8254,16 @@
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>539</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>12</v>
@@ -8298,7 +8298,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B42" s="10">
         <v>1</v>
@@ -8310,16 +8310,16 @@
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>1339</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>1341</v>
-      </c>
       <c r="H42" s="10" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>12</v>
@@ -10523,7 +10523,7 @@
         <v>503</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>800</v>
@@ -10605,7 +10605,7 @@
         <v>505</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>563</v>
@@ -10769,7 +10769,7 @@
         <v>509</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>573</v>
@@ -10854,7 +10854,7 @@
         <v>511</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>580</v>
@@ -11027,7 +11027,7 @@
         <v>515</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>613</v>
@@ -11282,7 +11282,7 @@
         <v>835</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>721</v>
@@ -11402,7 +11402,7 @@
         <v>773</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>774</v>
@@ -11443,7 +11443,7 @@
         <v>777</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>778</v>
@@ -11534,7 +11534,7 @@
         <v>839</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>803</v>
@@ -11695,16 +11695,16 @@
         <v>531</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="J83" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>7</v>
@@ -11736,16 +11736,16 @@
         <v>532</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>7</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>14</v>
@@ -11777,16 +11777,16 @@
         <v>533</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>1074</v>
-      </c>
       <c r="J85" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>7</v>
@@ -11818,13 +11818,13 @@
         <v>581</v>
       </c>
       <c r="G86" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H86" s="10" t="s">
         <v>1121</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="I86" s="10" t="s">
         <v>1122</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>1123</v>
       </c>
       <c r="J86" s="10" t="s">
         <v>133</v>
@@ -11859,13 +11859,13 @@
         <v>582</v>
       </c>
       <c r="G87" s="10" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>1288</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>1289</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>1290</v>
       </c>
       <c r="J87" s="10" t="s">
         <v>133</v>
@@ -11900,16 +11900,16 @@
         <v>583</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="J88" s="10" t="s">
         <v>1295</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>1296</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>7</v>
@@ -11941,22 +11941,22 @@
         <v>584</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I89" s="10" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J89" s="10" t="s">
         <v>1301</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>1302</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10" t="s">
@@ -11971,7 +11971,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>14</v>
@@ -11986,16 +11986,16 @@
         <v>12</v>
       </c>
       <c r="F90" s="10" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H90" s="10" t="s">
         <v>1323</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="I90" s="10" t="s">
         <v>1324</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>1326</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>133</v>
@@ -12017,7 +12017,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>14</v>
@@ -12032,16 +12032,16 @@
         <v>12</v>
       </c>
       <c r="F91" s="10" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H91" s="10" t="s">
         <v>1328</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="I91" s="10" t="s">
         <v>1329</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>1331</v>
       </c>
       <c r="J91" s="10" t="s">
         <v>133</v>
@@ -12220,13 +12220,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -12234,7 +12234,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -12242,13 +12242,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -12256,7 +12256,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>62</v>
@@ -12267,7 +12267,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>63</v>
@@ -12278,7 +12278,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>64</v>
@@ -12289,7 +12289,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>65</v>
@@ -12300,7 +12300,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
@@ -12311,7 +12311,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>67</v>
@@ -12322,7 +12322,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
@@ -12333,7 +12333,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
@@ -12344,7 +12344,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -12355,7 +12355,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>71</v>
@@ -12366,7 +12366,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>72</v>
@@ -12377,7 +12377,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>73</v>
@@ -12388,7 +12388,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>74</v>
@@ -12399,7 +12399,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>75</v>
@@ -12410,7 +12410,7 @@
         <v>195</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>195</v>
@@ -12421,7 +12421,7 @@
         <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>196</v>
@@ -12432,7 +12432,7 @@
         <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -12443,7 +12443,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -12454,7 +12454,7 @@
         <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>78</v>
@@ -12468,7 +12468,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -12490,7 +12490,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -12685,10 +12685,10 @@
         <v>304</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -12696,7 +12696,7 @@
         <v>305</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>63</v>
@@ -12707,7 +12707,7 @@
         <v>306</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>103</v>
@@ -12721,7 +12721,7 @@
         <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -12754,7 +12754,7 @@
         <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -12776,7 +12776,7 @@
         <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -12930,7 +12930,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -12952,7 +12952,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -13073,7 +13073,7 @@
         <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -13095,7 +13095,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -13210,18 +13210,18 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>66</v>
@@ -13232,7 +13232,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>66</v>
@@ -13243,7 +13243,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>66</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>66</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>66</v>
@@ -13276,7 +13276,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>66</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>66</v>
@@ -13298,7 +13298,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>66</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>66</v>
@@ -13353,21 +13353,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>61</v>
@@ -13375,21 +13375,21 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>62</v>
@@ -13397,10 +13397,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>63</v>
@@ -13408,10 +13408,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>64</v>
@@ -13419,10 +13419,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>65</v>
@@ -13430,10 +13430,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>73</v>
@@ -13441,10 +13441,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>74</v>
@@ -13452,10 +13452,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>75</v>
@@ -13463,10 +13463,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>195</v>
@@ -13474,10 +13474,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>499</v>
@@ -13485,10 +13485,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>522</v>
@@ -13496,10 +13496,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>523</v>
@@ -13507,18 +13507,18 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>498</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>498</v>
@@ -13529,18 +13529,18 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>498</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>498</v>
@@ -13551,7 +13551,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>498</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>498</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>498</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>498</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>498</v>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>498</v>
@@ -13617,7 +13617,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>498</v>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>498</v>
@@ -13639,18 +13639,18 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>499</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>499</v>
@@ -13661,18 +13661,18 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>499</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>499</v>
@@ -13683,7 +13683,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>499</v>
@@ -13694,7 +13694,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>499</v>
@@ -13705,7 +13705,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>499</v>
@@ -13716,7 +13716,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>499</v>
@@ -13727,7 +13727,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>499</v>
@@ -13738,7 +13738,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>499</v>
@@ -13749,7 +13749,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>499</v>
@@ -13760,7 +13760,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>499</v>
@@ -13771,7 +13771,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>499</v>
@@ -13782,18 +13782,18 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>501</v>
@@ -13804,18 +13804,18 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>501</v>
@@ -13826,7 +13826,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>501</v>
@@ -13837,7 +13837,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>501</v>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>501</v>
@@ -13859,7 +13859,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>501</v>
@@ -13870,18 +13870,18 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>502</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>502</v>
@@ -13892,18 +13892,18 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>502</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>502</v>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>502</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>502</v>
@@ -13936,7 +13936,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>502</v>
@@ -13947,7 +13947,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>502</v>
@@ -13958,18 +13958,18 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>520</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>520</v>
@@ -13980,18 +13980,18 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>520</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>520</v>
@@ -14002,7 +14002,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>520</v>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>520</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>520</v>
@@ -14035,7 +14035,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>520</v>
@@ -14046,7 +14046,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>520</v>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>520</v>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>520</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>520</v>
@@ -14090,7 +14090,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>520</v>
@@ -14101,18 +14101,18 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>521</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>521</v>
@@ -14123,18 +14123,18 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>521</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>521</v>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>521</v>
@@ -14156,7 +14156,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>521</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>521</v>
@@ -14178,7 +14178,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>521</v>
@@ -14189,7 +14189,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>521</v>
@@ -14200,7 +14200,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>521</v>
@@ -14211,7 +14211,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>521</v>
@@ -14222,7 +14222,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>521</v>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>521</v>
@@ -14244,7 +14244,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>521</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>521</v>
@@ -14266,18 +14266,18 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>522</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>522</v>
@@ -14288,18 +14288,18 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>522</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>522</v>
@@ -14310,7 +14310,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>522</v>
@@ -14321,7 +14321,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>522</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>522</v>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>522</v>
@@ -14354,18 +14354,18 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>500</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>500</v>
@@ -14376,18 +14376,18 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>500</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>500</v>
@@ -14398,7 +14398,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>500</v>
@@ -14409,7 +14409,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>500</v>
@@ -14420,7 +14420,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>500</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>500</v>
@@ -14442,7 +14442,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>500</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>500</v>
@@ -14464,7 +14464,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>500</v>
@@ -14475,7 +14475,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>500</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>500</v>
@@ -14497,7 +14497,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>500</v>
@@ -14508,7 +14508,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>500</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>500</v>
@@ -14530,7 +14530,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>500</v>
@@ -14541,18 +14541,18 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>504</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>504</v>
@@ -14563,18 +14563,18 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>504</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>504</v>
@@ -14585,7 +14585,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>504</v>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>504</v>
@@ -14607,7 +14607,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>504</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>504</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>504</v>
@@ -14640,7 +14640,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>504</v>
@@ -14651,7 +14651,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>504</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>504</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>504</v>
@@ -14684,7 +14684,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>504</v>
@@ -14695,18 +14695,18 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>505</v>
@@ -14717,18 +14717,18 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>505</v>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>505</v>
@@ -14750,7 +14750,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>505</v>
@@ -14761,7 +14761,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>505</v>
@@ -14772,7 +14772,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>505</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>505</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>505</v>
@@ -14805,7 +14805,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>505</v>
@@ -14816,7 +14816,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>505</v>
@@ -14827,7 +14827,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>505</v>
@@ -14838,18 +14838,18 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>505</v>
@@ -14860,7 +14860,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>505</v>
@@ -14871,7 +14871,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>505</v>
@@ -14882,18 +14882,18 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>525</v>
@@ -14904,18 +14904,18 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>525</v>
@@ -14926,7 +14926,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>525</v>
@@ -14937,7 +14937,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>525</v>
@@ -14948,7 +14948,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>525</v>
@@ -14959,7 +14959,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>525</v>
@@ -14970,7 +14970,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>525</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>525</v>
@@ -14992,7 +14992,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>525</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>525</v>
@@ -15014,7 +15014,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>525</v>
@@ -15025,18 +15025,18 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>526</v>
@@ -15047,18 +15047,18 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>526</v>
@@ -15069,7 +15069,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>526</v>
@@ -15080,7 +15080,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>526</v>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>526</v>
@@ -15102,7 +15102,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>526</v>
@@ -15113,7 +15113,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>526</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>526</v>
@@ -15135,7 +15135,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>526</v>
@@ -15146,7 +15146,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>526</v>
@@ -15157,7 +15157,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>526</v>
@@ -15168,7 +15168,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>526</v>
@@ -15179,7 +15179,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>500</v>
@@ -15190,18 +15190,18 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>514</v>
@@ -15212,18 +15212,18 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>514</v>
@@ -15234,7 +15234,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>514</v>
@@ -15245,7 +15245,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>514</v>
@@ -15256,7 +15256,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>514</v>
@@ -15267,7 +15267,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>514</v>
@@ -15278,7 +15278,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>514</v>
@@ -15289,7 +15289,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>514</v>
@@ -15300,7 +15300,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>514</v>
@@ -15311,7 +15311,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>514</v>
@@ -15322,7 +15322,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>514</v>
@@ -15333,7 +15333,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>514</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>514</v>
@@ -15355,21 +15355,21 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>61</v>
@@ -15377,21 +15377,21 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>62</v>
@@ -15399,10 +15399,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>63</v>
@@ -15410,10 +15410,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>73</v>
@@ -15421,10 +15421,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>74</v>
@@ -15432,10 +15432,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>75</v>
@@ -15443,10 +15443,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>195</v>
@@ -15454,10 +15454,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>507</v>
@@ -15465,10 +15465,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>508</v>
@@ -15476,10 +15476,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>509</v>
@@ -15487,10 +15487,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>510</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>533</v>
@@ -15509,21 +15509,21 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>61</v>
@@ -15531,21 +15531,21 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>62</v>
@@ -15553,10 +15553,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>63</v>
@@ -15564,10 +15564,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>73</v>
@@ -15575,10 +15575,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>74</v>
@@ -15586,10 +15586,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>75</v>
@@ -15597,10 +15597,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>195</v>
@@ -15608,10 +15608,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>507</v>
@@ -15619,10 +15619,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>508</v>
@@ -15630,10 +15630,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>509</v>
@@ -15641,10 +15641,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>510</v>
@@ -15652,10 +15652,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>525</v>
@@ -15663,21 +15663,21 @@
     </row>
     <row r="315" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>61</v>
@@ -15685,21 +15685,21 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>62</v>
@@ -15707,10 +15707,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>63</v>
@@ -15718,10 +15718,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>73</v>
@@ -15729,10 +15729,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>74</v>
@@ -15740,10 +15740,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>75</v>
@@ -15751,10 +15751,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>195</v>
@@ -15762,10 +15762,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>507</v>
@@ -15773,10 +15773,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>508</v>
@@ -15784,10 +15784,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>509</v>
@@ -15795,10 +15795,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>510</v>
@@ -15806,10 +15806,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>525</v>
@@ -15817,21 +15817,21 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>61</v>
@@ -15839,21 +15839,21 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>62</v>
@@ -15861,10 +15861,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>63</v>
@@ -15872,10 +15872,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>73</v>
@@ -15883,10 +15883,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>74</v>
@@ -15894,10 +15894,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>75</v>
@@ -15905,10 +15905,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>195</v>
@@ -15916,10 +15916,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>507</v>
@@ -15927,10 +15927,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>508</v>
@@ -15938,10 +15938,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>509</v>
@@ -15949,10 +15949,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>510</v>
@@ -15960,10 +15960,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>525</v>
@@ -15971,21 +15971,21 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>61</v>
@@ -15993,21 +15993,21 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>62</v>
@@ -16015,10 +16015,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>63</v>
@@ -16026,10 +16026,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>73</v>
@@ -16037,10 +16037,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>74</v>
@@ -16048,10 +16048,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>75</v>
@@ -16059,10 +16059,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>195</v>
@@ -16070,10 +16070,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>507</v>
@@ -16081,10 +16081,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>508</v>
@@ -16092,10 +16092,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>509</v>
@@ -16103,10 +16103,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>510</v>
@@ -16114,10 +16114,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>525</v>
@@ -16125,32 +16125,32 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>61</v>
@@ -16158,21 +16158,21 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>62</v>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>63</v>
@@ -16191,10 +16191,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>73</v>
@@ -16202,10 +16202,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>74</v>
@@ -16213,10 +16213,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>75</v>
@@ -16224,10 +16224,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>195</v>
@@ -16235,10 +16235,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>507</v>
@@ -16246,10 +16246,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>508</v>
@@ -16257,10 +16257,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>509</v>
@@ -16268,10 +16268,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>510</v>
@@ -16279,10 +16279,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>525</v>
@@ -16290,32 +16290,32 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>61</v>
@@ -16323,21 +16323,21 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>62</v>
@@ -16345,10 +16345,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>63</v>
@@ -16356,10 +16356,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>73</v>
@@ -16367,10 +16367,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>74</v>
@@ -16378,10 +16378,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>75</v>
@@ -16389,10 +16389,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>195</v>
@@ -16400,10 +16400,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>507</v>
@@ -16411,10 +16411,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>508</v>
@@ -16422,10 +16422,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>509</v>
@@ -16433,10 +16433,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>510</v>
@@ -16444,10 +16444,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>525</v>
@@ -16455,32 +16455,32 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>61</v>
@@ -16488,21 +16488,21 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>62</v>
@@ -16510,10 +16510,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>63</v>
@@ -16521,10 +16521,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>73</v>
@@ -16532,10 +16532,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>74</v>
@@ -16543,10 +16543,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>75</v>
@@ -16554,10 +16554,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>195</v>
@@ -16565,10 +16565,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>507</v>
@@ -16576,10 +16576,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>508</v>
@@ -16587,10 +16587,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>509</v>
@@ -16598,10 +16598,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>510</v>
@@ -16609,10 +16609,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>525</v>
@@ -16620,32 +16620,32 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>61</v>
@@ -16653,21 +16653,21 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>62</v>
@@ -16675,10 +16675,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>63</v>
@@ -16686,10 +16686,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>73</v>
@@ -16697,10 +16697,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>74</v>
@@ -16708,10 +16708,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>75</v>
@@ -16719,10 +16719,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>195</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>507</v>
@@ -16741,10 +16741,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>508</v>
@@ -16752,10 +16752,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>509</v>
@@ -16763,10 +16763,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>510</v>
@@ -16774,10 +16774,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>525</v>
@@ -16785,32 +16785,32 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>61</v>
@@ -16818,21 +16818,21 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>62</v>
@@ -16840,10 +16840,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>63</v>
@@ -16851,10 +16851,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>73</v>
@@ -16862,10 +16862,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>74</v>
@@ -16873,10 +16873,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>75</v>
@@ -16884,10 +16884,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>195</v>
@@ -16895,10 +16895,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>507</v>
@@ -16906,10 +16906,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>508</v>
@@ -16917,10 +16917,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>509</v>
@@ -16928,10 +16928,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>510</v>
@@ -16939,10 +16939,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>525</v>
@@ -16950,32 +16950,32 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>61</v>
@@ -16983,21 +16983,21 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>62</v>
@@ -17005,10 +17005,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>63</v>
@@ -17016,10 +17016,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>73</v>
@@ -17027,10 +17027,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>74</v>
@@ -17038,10 +17038,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>75</v>
@@ -17049,10 +17049,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>195</v>
@@ -17060,10 +17060,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>507</v>
@@ -17071,10 +17071,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>508</v>
@@ -17082,10 +17082,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>509</v>
@@ -17093,10 +17093,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>510</v>
@@ -17104,10 +17104,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>525</v>
@@ -17115,32 +17115,32 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>61</v>
@@ -17148,21 +17148,21 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>62</v>
@@ -17170,10 +17170,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>63</v>
@@ -17181,10 +17181,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>73</v>
@@ -17192,10 +17192,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>74</v>
@@ -17203,10 +17203,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>75</v>
@@ -17214,10 +17214,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>195</v>
@@ -17225,10 +17225,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>507</v>
@@ -17236,10 +17236,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>508</v>
@@ -17247,10 +17247,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>509</v>
@@ -17258,10 +17258,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>510</v>
@@ -17269,65 +17269,65 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B461" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>500</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>61</v>
@@ -17335,21 +17335,21 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>804</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>62</v>
@@ -17357,10 +17357,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>63</v>
@@ -17368,24 +17368,24 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -17941,13 +17941,13 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -18241,18 +18241,18 @@
         <v>716</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>527</v>
@@ -18268,7 +18268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -18633,7 +18633,7 @@
         <v>692</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>20</v>
@@ -18671,7 +18671,7 @@
         <v>693</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>20</v>
@@ -18709,7 +18709,7 @@
         <v>694</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -18747,7 +18747,7 @@
         <v>695</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>696</v>
@@ -18788,7 +18788,7 @@
         <v>833</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>20</v>
@@ -18826,7 +18826,7 @@
         <v>832</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
@@ -18904,7 +18904,7 @@
         <v>834</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>12</v>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -18936,13 +18936,13 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>12</v>
@@ -18969,13 +18969,15 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -19136,7 +19138,7 @@
         <v>550</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>574</v>
@@ -19313,7 +19315,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -19325,13 +19327,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -19353,8 +19355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20271,7 +20273,7 @@
         <v>534</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>484</v>
@@ -20516,10 +20518,10 @@
         <v>504</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>7</v>
@@ -20554,7 +20556,7 @@
         <v>470</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>7</v>
@@ -20586,10 +20588,10 @@
         <v>506</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>7</v>
@@ -20866,10 +20868,10 @@
         <v>504</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>7</v>
@@ -20904,7 +20906,7 @@
         <v>470</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>7</v>
@@ -20936,10 +20938,10 @@
         <v>506</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>7</v>
@@ -20968,7 +20970,7 @@
         <v>550</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>662</v>
@@ -21003,7 +21005,7 @@
         <v>626</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>663</v>
@@ -21038,7 +21040,7 @@
         <v>626</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>664</v>
@@ -21073,7 +21075,7 @@
         <v>626</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>441</v>
@@ -21108,7 +21110,7 @@
         <v>626</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>443</v>
@@ -21143,7 +21145,7 @@
         <v>626</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>445</v>
@@ -21178,7 +21180,7 @@
         <v>626</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>447</v>
@@ -21213,7 +21215,7 @@
         <v>626</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>449</v>
@@ -21248,7 +21250,7 @@
         <v>626</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>451</v>
@@ -21283,7 +21285,7 @@
         <v>626</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>453</v>
@@ -21318,7 +21320,7 @@
         <v>626</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>455</v>
@@ -21353,7 +21355,7 @@
         <v>626</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>457</v>
@@ -21388,7 +21390,7 @@
         <v>626</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>459</v>
@@ -21423,7 +21425,7 @@
         <v>626</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>461</v>
@@ -21458,7 +21460,7 @@
         <v>626</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>463</v>
@@ -21493,7 +21495,7 @@
         <v>626</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>464</v>
@@ -21528,13 +21530,13 @@
         <v>626</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>7</v>
@@ -21863,7 +21865,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B72" s="1">
         <v>7</v>
@@ -22015,13 +22017,13 @@
         <v>125</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>7</v>
@@ -22047,16 +22049,16 @@
         <v>125</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>1315</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>1316</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>7</v>
@@ -22082,16 +22084,16 @@
         <v>125</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>7</v>
@@ -22117,16 +22119,16 @@
         <v>125</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>7</v>
@@ -22163,7 +22165,7 @@
         <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E1">
         <v>103</v>
@@ -22172,22 +22174,22 @@
         <v>103</v>
       </c>
       <c r="G1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I1" t="s">
         <v>1366</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>1367</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>1368</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>1369</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1371</v>
       </c>
     </row>
   </sheetData>

--- a/Layout模型基础定义数据.xlsx
+++ b/Layout模型基础定义数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="818" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4761" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4788" uniqueCount="1420">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4849,167 +4849,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>positionInParent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callbackParent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callbackName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调目标父亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALLBACK_PARENT</t>
+  </si>
+  <si>
+    <t>CALLBACK_NAME</t>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交父ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMIT_PARENT_ID</t>
+  </si>
+  <si>
+    <t>commitParentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>EXPAND_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expandInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>authMenuButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>LayoutComponentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>positionInParent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>callbackParent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>callbackName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回调目标父亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回调目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALLBACK_PARENT</t>
-  </si>
-  <si>
-    <t>CALLBACK_NAME</t>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>146</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交父ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMIT_PARENT_ID</t>
-  </si>
-  <si>
-    <t>commitParentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>884</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>EXPAND_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expandInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>893</t>
-  </si>
-  <si>
-    <t>894</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>896</t>
-  </si>
-  <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>authMenuButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>901</t>
+    <t>102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6107,7 +6142,7 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11149,7 +11184,7 @@
         <v>514</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>612</v>
@@ -11650,7 +11685,7 @@
         <v>526</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>785</v>
@@ -12247,13 +12282,13 @@
         <v>587</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="J92" s="10" t="s">
         <v>133</v>
@@ -12293,13 +12328,13 @@
         <v>588</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="J93" s="10" t="s">
         <v>133</v>
@@ -12321,7 +12356,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>14</v>
@@ -12336,16 +12371,16 @@
         <v>12</v>
       </c>
       <c r="F94" s="10" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>1374</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>1376</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>1375</v>
       </c>
       <c r="J94" s="10" t="s">
         <v>133</v>
@@ -12367,7 +12402,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>14</v>
@@ -12382,16 +12417,16 @@
         <v>12</v>
       </c>
       <c r="F95" s="10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I95" s="10" t="s">
         <v>1378</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>1379</v>
       </c>
       <c r="J95" s="10" t="s">
         <v>133</v>
@@ -12558,10 +12593,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C493"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494"/>
+    <sheetView topLeftCell="A486" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I504" sqref="I504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17752,7 +17787,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>500</v>
@@ -17763,10 +17798,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C473" s="10" t="s">
         <v>587</v>
@@ -17774,10 +17809,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C474" s="10" t="s">
         <v>588</v>
@@ -17785,54 +17820,54 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B478" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>859</v>
@@ -17840,10 +17875,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>61</v>
@@ -17851,10 +17886,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>860</v>
@@ -17862,10 +17897,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>62</v>
@@ -17873,10 +17908,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>63</v>
@@ -17884,10 +17919,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>73</v>
@@ -17895,10 +17930,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>74</v>
@@ -17906,10 +17941,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>75</v>
@@ -17917,10 +17952,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>195</v>
@@ -17928,10 +17963,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>507</v>
@@ -17939,10 +17974,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>508</v>
@@ -17950,10 +17985,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>509</v>
@@ -17961,10 +17996,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>510</v>
@@ -17972,24 +18007,123 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A494" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>1406</v>
+      <c r="C494" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A495" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A496" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A497" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A498" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A499" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A500" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A501" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A502" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -19576,7 +19710,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19742,10 +19876,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>550</v>
+        <v>1419</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1362</v>
+        <v>1418</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>574</v>
@@ -19962,8 +20096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
